--- a/natmiOut/OldD7/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.64946081705008</v>
+        <v>0.6103310000000001</v>
       </c>
       <c r="H2">
-        <v>2.64946081705008</v>
+        <v>1.830993</v>
       </c>
       <c r="I2">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595619</v>
       </c>
       <c r="J2">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595618</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.0882008104475</v>
+        <v>44.017783</v>
       </c>
       <c r="N2">
-        <v>43.0882008104475</v>
+        <v>132.053349</v>
       </c>
       <c r="O2">
-        <v>0.2545031812269119</v>
+        <v>0.253483683026081</v>
       </c>
       <c r="P2">
-        <v>0.2545031812269119</v>
+        <v>0.253483683026081</v>
       </c>
       <c r="Q2">
-        <v>114.1604997244662</v>
+        <v>26.865417516173</v>
       </c>
       <c r="R2">
-        <v>114.1604997244662</v>
+        <v>241.788757645557</v>
       </c>
       <c r="S2">
-        <v>0.07548473163969664</v>
+        <v>0.01536034249348218</v>
       </c>
       <c r="T2">
-        <v>0.07548473163969664</v>
+        <v>0.01536034249348218</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.64946081705008</v>
+        <v>0.6103310000000001</v>
       </c>
       <c r="H3">
-        <v>2.64946081705008</v>
+        <v>1.830993</v>
       </c>
       <c r="I3">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595619</v>
       </c>
       <c r="J3">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595618</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>99.6651130769268</v>
+        <v>99.76728333333334</v>
       </c>
       <c r="N3">
-        <v>99.6651130769268</v>
+        <v>299.30185</v>
       </c>
       <c r="O3">
-        <v>0.588678289144706</v>
+        <v>0.5745264004968147</v>
       </c>
       <c r="P3">
-        <v>0.588678289144706</v>
+        <v>0.5745264004968147</v>
       </c>
       <c r="Q3">
-        <v>264.0588119241831</v>
+        <v>60.89106580411668</v>
       </c>
       <c r="R3">
-        <v>264.0588119241831</v>
+        <v>548.01959223705</v>
       </c>
       <c r="S3">
-        <v>0.1745998712628472</v>
+        <v>0.0348145575992384</v>
       </c>
       <c r="T3">
-        <v>0.1745998712628472</v>
+        <v>0.03481455759923839</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.64946081705008</v>
+        <v>0.6103310000000001</v>
       </c>
       <c r="H4">
-        <v>2.64946081705008</v>
+        <v>1.830993</v>
       </c>
       <c r="I4">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595619</v>
       </c>
       <c r="J4">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595618</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.807486038585729</v>
+        <v>10.852095</v>
       </c>
       <c r="N4">
-        <v>9.807486038585729</v>
+        <v>32.556285</v>
       </c>
       <c r="O4">
-        <v>0.05792853611221993</v>
+        <v>0.06249358376701795</v>
       </c>
       <c r="P4">
-        <v>0.05792853611221993</v>
+        <v>0.06249358376701795</v>
       </c>
       <c r="Q4">
-        <v>25.9845499729986</v>
+        <v>6.623369993445001</v>
       </c>
       <c r="R4">
-        <v>25.9845499729986</v>
+        <v>59.61032994100501</v>
       </c>
       <c r="S4">
-        <v>0.01718139624672406</v>
+        <v>0.003786921662360995</v>
       </c>
       <c r="T4">
-        <v>0.01718139624672406</v>
+        <v>0.003786921662360995</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.64946081705008</v>
+        <v>0.6103310000000001</v>
       </c>
       <c r="H5">
-        <v>2.64946081705008</v>
+        <v>1.830993</v>
       </c>
       <c r="I5">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595619</v>
       </c>
       <c r="J5">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595618</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.7423915026398</v>
+        <v>19.01418566666667</v>
       </c>
       <c r="N5">
-        <v>16.7423915026398</v>
+        <v>57.042557</v>
       </c>
       <c r="O5">
-        <v>0.09888999351616218</v>
+        <v>0.1094963327100864</v>
       </c>
       <c r="P5">
-        <v>0.09888999351616218</v>
+        <v>0.1094963327100864</v>
       </c>
       <c r="Q5">
-        <v>44.35831026995636</v>
+        <v>11.60494695212233</v>
       </c>
       <c r="R5">
-        <v>44.35831026995636</v>
+        <v>104.444522569101</v>
       </c>
       <c r="S5">
-        <v>0.02933041774343647</v>
+        <v>0.006635145710874622</v>
       </c>
       <c r="T5">
-        <v>0.02933041774343647</v>
+        <v>0.006635145710874621</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.14781410441597</v>
+        <v>2.690388333333333</v>
       </c>
       <c r="H6">
-        <v>1.14781410441597</v>
+        <v>8.071165000000001</v>
       </c>
       <c r="I6">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="J6">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.0882008104475</v>
+        <v>44.017783</v>
       </c>
       <c r="N6">
-        <v>43.0882008104475</v>
+        <v>132.053349</v>
       </c>
       <c r="O6">
-        <v>0.2545031812269119</v>
+        <v>0.253483683026081</v>
       </c>
       <c r="P6">
-        <v>0.2545031812269119</v>
+        <v>0.253483683026081</v>
       </c>
       <c r="Q6">
-        <v>49.45724462413927</v>
+        <v>118.4249298423983</v>
       </c>
       <c r="R6">
-        <v>49.45724462413927</v>
+        <v>1065.824368581585</v>
       </c>
       <c r="S6">
-        <v>0.03270191394661434</v>
+        <v>0.06770963008673771</v>
       </c>
       <c r="T6">
-        <v>0.03270191394661434</v>
+        <v>0.06770963008673769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.14781410441597</v>
+        <v>2.690388333333333</v>
       </c>
       <c r="H7">
-        <v>1.14781410441597</v>
+        <v>8.071165000000001</v>
       </c>
       <c r="I7">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="J7">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>99.6651130769268</v>
+        <v>99.76728333333334</v>
       </c>
       <c r="N7">
-        <v>99.6651130769268</v>
+        <v>299.30185</v>
       </c>
       <c r="O7">
-        <v>0.588678289144706</v>
+        <v>0.5745264004968147</v>
       </c>
       <c r="P7">
-        <v>0.588678289144706</v>
+        <v>0.5745264004968147</v>
       </c>
       <c r="Q7">
-        <v>114.3970225079091</v>
+        <v>268.4127351283611</v>
       </c>
       <c r="R7">
-        <v>114.3970225079091</v>
+        <v>2415.71461615525</v>
       </c>
       <c r="S7">
-        <v>0.07564112425253521</v>
+        <v>0.1534653812360053</v>
       </c>
       <c r="T7">
-        <v>0.07564112425253521</v>
+        <v>0.1534653812360053</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.14781410441597</v>
+        <v>2.690388333333333</v>
       </c>
       <c r="H8">
-        <v>1.14781410441597</v>
+        <v>8.071165000000001</v>
       </c>
       <c r="I8">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="J8">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.807486038585729</v>
+        <v>10.852095</v>
       </c>
       <c r="N8">
-        <v>9.807486038585729</v>
+        <v>32.556285</v>
       </c>
       <c r="O8">
-        <v>0.05792853611221993</v>
+        <v>0.06249358376701795</v>
       </c>
       <c r="P8">
-        <v>0.05792853611221993</v>
+        <v>0.06249358376701795</v>
       </c>
       <c r="Q8">
-        <v>11.25717080395141</v>
+        <v>29.196349780225</v>
       </c>
       <c r="R8">
-        <v>11.25717080395141</v>
+        <v>262.767148022025</v>
       </c>
       <c r="S8">
-        <v>0.007443419739834831</v>
+        <v>0.01669305648846821</v>
       </c>
       <c r="T8">
-        <v>0.007443419739834831</v>
+        <v>0.01669305648846821</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.14781410441597</v>
+        <v>2.690388333333333</v>
       </c>
       <c r="H9">
-        <v>1.14781410441597</v>
+        <v>8.071165000000001</v>
       </c>
       <c r="I9">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="J9">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.7423915026398</v>
+        <v>19.01418566666667</v>
       </c>
       <c r="N9">
-        <v>16.7423915026398</v>
+        <v>57.042557</v>
       </c>
       <c r="O9">
-        <v>0.09888999351616218</v>
+        <v>0.1094963327100864</v>
       </c>
       <c r="P9">
-        <v>0.09888999351616218</v>
+        <v>0.1094963327100864</v>
       </c>
       <c r="Q9">
-        <v>19.21715310838405</v>
+        <v>51.15554328543389</v>
       </c>
       <c r="R9">
-        <v>19.21715310838405</v>
+        <v>460.3998895689051</v>
       </c>
       <c r="S9">
-        <v>0.01270668618976313</v>
+        <v>0.02924825809356527</v>
       </c>
       <c r="T9">
-        <v>0.01270668618976313</v>
+        <v>0.02924825809356527</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.13560715717531</v>
+        <v>1.24836</v>
       </c>
       <c r="H10">
-        <v>5.13560715717531</v>
+        <v>3.74508</v>
       </c>
       <c r="I10">
-        <v>0.5749104389785482</v>
+        <v>0.1239439423948662</v>
       </c>
       <c r="J10">
-        <v>0.5749104389785482</v>
+        <v>0.1239439423948662</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.0882008104475</v>
+        <v>44.017783</v>
       </c>
       <c r="N10">
-        <v>43.0882008104475</v>
+        <v>132.053349</v>
       </c>
       <c r="O10">
-        <v>0.2545031812269119</v>
+        <v>0.253483683026081</v>
       </c>
       <c r="P10">
-        <v>0.2545031812269119</v>
+        <v>0.253483683026081</v>
       </c>
       <c r="Q10">
-        <v>221.2840724719412</v>
+        <v>54.95003958588</v>
       </c>
       <c r="R10">
-        <v>221.2840724719412</v>
+        <v>494.5503562729199</v>
       </c>
       <c r="S10">
-        <v>0.1463165356406009</v>
+        <v>0.0314177670070231</v>
       </c>
       <c r="T10">
-        <v>0.1463165356406009</v>
+        <v>0.0314177670070231</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.13560715717531</v>
+        <v>1.24836</v>
       </c>
       <c r="H11">
-        <v>5.13560715717531</v>
+        <v>3.74508</v>
       </c>
       <c r="I11">
-        <v>0.5749104389785482</v>
+        <v>0.1239439423948662</v>
       </c>
       <c r="J11">
-        <v>0.5749104389785482</v>
+        <v>0.1239439423948662</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>99.6651130769268</v>
+        <v>99.76728333333334</v>
       </c>
       <c r="N11">
-        <v>99.6651130769268</v>
+        <v>299.30185</v>
       </c>
       <c r="O11">
-        <v>0.588678289144706</v>
+        <v>0.5745264004968147</v>
       </c>
       <c r="P11">
-        <v>0.588678289144706</v>
+        <v>0.5745264004968147</v>
       </c>
       <c r="Q11">
-        <v>511.8408680385519</v>
+        <v>124.545485822</v>
       </c>
       <c r="R11">
-        <v>511.8408680385519</v>
+        <v>1120.909372398</v>
       </c>
       <c r="S11">
-        <v>0.3384372936293237</v>
+        <v>0.071209067087507</v>
       </c>
       <c r="T11">
-        <v>0.3384372936293237</v>
+        <v>0.071209067087507</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.13560715717531</v>
+        <v>1.24836</v>
       </c>
       <c r="H12">
-        <v>5.13560715717531</v>
+        <v>3.74508</v>
       </c>
       <c r="I12">
-        <v>0.5749104389785482</v>
+        <v>0.1239439423948662</v>
       </c>
       <c r="J12">
-        <v>0.5749104389785482</v>
+        <v>0.1239439423948662</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.807486038585729</v>
+        <v>10.852095</v>
       </c>
       <c r="N12">
-        <v>9.807486038585729</v>
+        <v>32.556285</v>
       </c>
       <c r="O12">
-        <v>0.05792853611221993</v>
+        <v>0.06249358376701795</v>
       </c>
       <c r="P12">
-        <v>0.05792853611221993</v>
+        <v>0.06249358376701795</v>
       </c>
       <c r="Q12">
-        <v>50.3673954936578</v>
+        <v>13.5473213142</v>
       </c>
       <c r="R12">
-        <v>50.3673954936578</v>
+        <v>121.9258918278</v>
       </c>
       <c r="S12">
-        <v>0.03330372012566105</v>
+        <v>0.007745701146468015</v>
       </c>
       <c r="T12">
-        <v>0.03330372012566105</v>
+        <v>0.007745701146468016</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.24836</v>
+      </c>
+      <c r="H13">
+        <v>3.74508</v>
+      </c>
+      <c r="I13">
+        <v>0.1239439423948662</v>
+      </c>
+      <c r="J13">
+        <v>0.1239439423948662</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.01418566666667</v>
+      </c>
+      <c r="N13">
+        <v>57.042557</v>
+      </c>
+      <c r="O13">
+        <v>0.1094963327100864</v>
+      </c>
+      <c r="P13">
+        <v>0.1094963327100864</v>
+      </c>
+      <c r="Q13">
+        <v>23.73654881884</v>
+      </c>
+      <c r="R13">
+        <v>213.62893936956</v>
+      </c>
+      <c r="S13">
+        <v>0.01357140715386805</v>
+      </c>
+      <c r="T13">
+        <v>0.01357140715386805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.522893333333333</v>
+      </c>
+      <c r="H14">
+        <v>16.56868</v>
+      </c>
+      <c r="I14">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="J14">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>44.017783</v>
+      </c>
+      <c r="N14">
+        <v>132.053349</v>
+      </c>
+      <c r="O14">
+        <v>0.253483683026081</v>
+      </c>
+      <c r="P14">
+        <v>0.253483683026081</v>
+      </c>
+      <c r="Q14">
+        <v>243.1055202788133</v>
+      </c>
+      <c r="R14">
+        <v>2187.94968250932</v>
+      </c>
+      <c r="S14">
+        <v>0.138995943438838</v>
+      </c>
+      <c r="T14">
+        <v>0.138995943438838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.522893333333333</v>
+      </c>
+      <c r="H15">
+        <v>16.56868</v>
+      </c>
+      <c r="I15">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="J15">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>99.76728333333334</v>
+      </c>
+      <c r="N15">
+        <v>299.30185</v>
+      </c>
+      <c r="O15">
+        <v>0.5745264004968147</v>
+      </c>
+      <c r="P15">
+        <v>0.5745264004968147</v>
+      </c>
+      <c r="Q15">
+        <v>551.0040640064444</v>
+      </c>
+      <c r="R15">
+        <v>4959.036576058</v>
+      </c>
+      <c r="S15">
+        <v>0.315037394574064</v>
+      </c>
+      <c r="T15">
+        <v>0.315037394574064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>5.13560715717531</v>
-      </c>
-      <c r="H13">
-        <v>5.13560715717531</v>
-      </c>
-      <c r="I13">
-        <v>0.5749104389785482</v>
-      </c>
-      <c r="J13">
-        <v>0.5749104389785482</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>16.7423915026398</v>
-      </c>
-      <c r="N13">
-        <v>16.7423915026398</v>
-      </c>
-      <c r="O13">
-        <v>0.09888999351616218</v>
-      </c>
-      <c r="P13">
-        <v>0.09888999351616218</v>
-      </c>
-      <c r="Q13">
-        <v>85.98234562918806</v>
-      </c>
-      <c r="R13">
-        <v>85.98234562918806</v>
-      </c>
-      <c r="S13">
-        <v>0.05685288958296258</v>
-      </c>
-      <c r="T13">
-        <v>0.05685288958296258</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.522893333333333</v>
+      </c>
+      <c r="H16">
+        <v>16.56868</v>
+      </c>
+      <c r="I16">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="J16">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.852095</v>
+      </c>
+      <c r="N16">
+        <v>32.556285</v>
+      </c>
+      <c r="O16">
+        <v>0.06249358376701795</v>
+      </c>
+      <c r="P16">
+        <v>0.06249358376701795</v>
+      </c>
+      <c r="Q16">
+        <v>59.9349631282</v>
+      </c>
+      <c r="R16">
+        <v>539.4146681538001</v>
+      </c>
+      <c r="S16">
+        <v>0.03426790446972072</v>
+      </c>
+      <c r="T16">
+        <v>0.03426790446972073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.522893333333333</v>
+      </c>
+      <c r="H17">
+        <v>16.56868</v>
+      </c>
+      <c r="I17">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="J17">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.01418566666667</v>
+      </c>
+      <c r="N17">
+        <v>57.042557</v>
+      </c>
+      <c r="O17">
+        <v>0.1094963327100864</v>
+      </c>
+      <c r="P17">
+        <v>0.1094963327100864</v>
+      </c>
+      <c r="Q17">
+        <v>105.0133192571955</v>
+      </c>
+      <c r="R17">
+        <v>945.1198733147601</v>
+      </c>
+      <c r="S17">
+        <v>0.06004152175177847</v>
+      </c>
+      <c r="T17">
+        <v>0.06004152175177847</v>
       </c>
     </row>
   </sheetData>
